--- a/hotel_color.xlsx
+++ b/hotel_color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcogiven/Desktop/PsychoPyProjects/mock_study_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F3CFC-BCB7-4146-95D3-68596BC2C729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2C5E7-67A1-064D-9573-2BC1AFE4DD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>hotel_query</t>
   </si>
   <si>
-    <t>images/hotel1_query</t>
-  </si>
-  <si>
     <t>choice1</t>
   </si>
   <si>
@@ -115,96 +112,9 @@
     <t>choice5</t>
   </si>
   <si>
-    <t>images/hotel1_sample1</t>
-  </si>
-  <si>
-    <t>images/hotel1_sample2</t>
-  </si>
-  <si>
-    <t>images/hotel1_sample4</t>
-  </si>
-  <si>
-    <t>images/hotel1_correct</t>
-  </si>
-  <si>
-    <t>images/hotel1_sample3</t>
-  </si>
-  <si>
     <t>correct_answer</t>
   </si>
   <si>
-    <t>images/hotel2_query</t>
-  </si>
-  <si>
-    <t>images/hotel2_sample1</t>
-  </si>
-  <si>
-    <t>images/hotel2_correct</t>
-  </si>
-  <si>
-    <t>images/hotel2_sample2</t>
-  </si>
-  <si>
-    <t>images/hotel2_sample3</t>
-  </si>
-  <si>
-    <t>images/hotel2_sample4</t>
-  </si>
-  <si>
-    <t>images/hotel3_query</t>
-  </si>
-  <si>
-    <t>images/hotel3_correct</t>
-  </si>
-  <si>
-    <t>images/hotel3_sample1</t>
-  </si>
-  <si>
-    <t>images/hotel3_sample2</t>
-  </si>
-  <si>
-    <t>images/hotel3_sample3</t>
-  </si>
-  <si>
-    <t>images/hotel3_sample4</t>
-  </si>
-  <si>
-    <t>images/hotel4_query</t>
-  </si>
-  <si>
-    <t>images/hotel4_correct</t>
-  </si>
-  <si>
-    <t>images/hotel4_sample4</t>
-  </si>
-  <si>
-    <t>images/hotel4_sample3</t>
-  </si>
-  <si>
-    <t>images/hotel4_sample2</t>
-  </si>
-  <si>
-    <t>images/hotel4_sample1</t>
-  </si>
-  <si>
-    <t>images/hotel5_query</t>
-  </si>
-  <si>
-    <t>images/hotel5_sample1</t>
-  </si>
-  <si>
-    <t>images/hotel5_sample2</t>
-  </si>
-  <si>
-    <t>images/hotel5_correct</t>
-  </si>
-  <si>
-    <t>images/hotel5_sample3</t>
-  </si>
-  <si>
-    <t>images/hotel5_sample4</t>
-  </si>
-  <si>
     <t>gray1</t>
   </si>
   <si>
@@ -220,79 +130,169 @@
     <t>gray5</t>
   </si>
   <si>
-    <t>images/hotel1_gray1</t>
-  </si>
-  <si>
-    <t>images/hotel1_gray2</t>
-  </si>
-  <si>
-    <t>images/hotel1_gray4</t>
-  </si>
-  <si>
-    <t>images/hotel1_gray3</t>
-  </si>
-  <si>
-    <t>images/hotel1_correctGray</t>
-  </si>
-  <si>
-    <t>images/hotel2_gray1</t>
-  </si>
-  <si>
-    <t>images/hotel2_correctGray</t>
-  </si>
-  <si>
-    <t>images/hotel3_correctGray</t>
-  </si>
-  <si>
-    <t>images/hotel3_gray1</t>
-  </si>
-  <si>
-    <t>images/hotel3_gray2</t>
-  </si>
-  <si>
-    <t>images/hotel3_gray3</t>
-  </si>
-  <si>
-    <t>images/hotel3_gray4</t>
-  </si>
-  <si>
-    <t>images/hotel4_correctGray</t>
-  </si>
-  <si>
-    <t>images/hotel4_gray1</t>
-  </si>
-  <si>
-    <t>images/hotel4_gray2</t>
-  </si>
-  <si>
-    <t>images/hotel4_gray3</t>
-  </si>
-  <si>
-    <t>images/hotel4_gray4</t>
-  </si>
-  <si>
-    <t>images/hotel5_correctGray</t>
-  </si>
-  <si>
-    <t>images/hotel5_gray1</t>
-  </si>
-  <si>
-    <t>images/hotel5_gray2</t>
-  </si>
-  <si>
-    <t>images/hotel5_gray3</t>
-  </si>
-  <si>
-    <t>images/hotel5_gray4</t>
-  </si>
-  <si>
-    <t>images/hotel2_gray2</t>
-  </si>
-  <si>
-    <t>images/hotel2_gray3</t>
-  </si>
-  <si>
-    <t>images/hotel2_gray4</t>
+    <t>images/hotel1_query.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_sample2.jpeg</t>
+  </si>
+  <si>
+    <t>images/hotel1_sample3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_correct.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_sample4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_gray1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_gray3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_correctGray.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_gray4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_gray2.jpeg</t>
+  </si>
+  <si>
+    <t>images/hotel2_query.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_sample1.JPEG</t>
+  </si>
+  <si>
+    <t>images/hotel2_correct.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_sample2.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_sample3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_sample4.jpeg</t>
+  </si>
+  <si>
+    <t>images/hotel2_gray1.JPEG</t>
+  </si>
+  <si>
+    <t>images/hotel2_correctGray.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_gray2.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_gray3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel2_gray4.jpeg</t>
+  </si>
+  <si>
+    <t>images/hotel3_query.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_correct.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_sample1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_sample2.jpeg</t>
+  </si>
+  <si>
+    <t>images/hotel3_sample3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_sample4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_correctGray.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_gray1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_gray2.jpeg</t>
+  </si>
+  <si>
+    <t>images/hotel3_gray3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel3_gray4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_query.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_sample1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_sample2.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_sample3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_sample4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_correct.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_gray1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_gray2.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_gray3.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_gray4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel4_correctGray.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_query.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_sample1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_sample2.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_correct.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_sample3.png</t>
+  </si>
+  <si>
+    <t>images/hotel5_sample4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_gray1.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_gray2.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_correctGray.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel5_gray3.png</t>
+  </si>
+  <si>
+    <t>images/hotel5_gray4.jpg</t>
+  </si>
+  <si>
+    <t>images/hotel1_sample1.jpg</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -709,186 +709,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>54</v>
@@ -896,40 +896,40 @@
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -945,6 +945,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -1058,22 +1073,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1087,27 +1110,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>